--- a/iteration 3/story_map.xlsx
+++ b/iteration 3/story_map.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Epic</t>
   </si>
@@ -23,6 +23,9 @@
     <t>View Auctions</t>
   </si>
   <si>
+    <t>View Auction Info</t>
+  </si>
+  <si>
     <t>Search Auctions</t>
   </si>
   <si>
@@ -122,6 +125,9 @@
     <t>sort auctions by title</t>
   </si>
   <si>
+    <t>see bid history</t>
+  </si>
+  <si>
     <t>flag auction</t>
   </si>
   <si>
@@ -173,9 +179,6 @@
     <t>Suspend user</t>
   </si>
   <si>
-    <t>see bid history</t>
-  </si>
-  <si>
     <t>categorize auction</t>
   </si>
   <si>
@@ -188,6 +191,9 @@
     <t>view ended auctions</t>
   </si>
   <si>
+    <t>view auction bid in other currencies</t>
+  </si>
+  <si>
     <t>search by user</t>
   </si>
   <si>
@@ -198,9 +204,6 @@
   </si>
   <si>
     <t>categorize auction with new category</t>
-  </si>
-  <si>
-    <t>view auction bid in other currencies</t>
   </si>
 </sst>
 </file>
@@ -262,7 +265,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -292,6 +295,13 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="thin"/>
       <top/>
@@ -299,6 +309,20 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
       <top/>
@@ -324,6 +348,13 @@
       <right style="thin"/>
       <top/>
       <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -352,7 +383,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -369,11 +400,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -385,11 +420,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -397,7 +436,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -413,19 +460,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -504,35 +555,36 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="1:26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.1"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.0204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.9897959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.8010204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="37.0612244897959"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="52.9795918367347"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.3826530612245"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.6326530612245"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.4336734693878"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.8877551020408"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.1224489795918"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.6734693877551"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="24.3061224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.9132653061224"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.9897959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.8010204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.0612244897959"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="52.9795918367347"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.3826530612245"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="32.6326530612245"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.4336734693878"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.8877551020408"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.1224489795918"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="20.6734693877551"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="24.3061224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -569,295 +621,322 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AMI1" s="0"/>
+      <c r="O1" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="8" customFormat="true" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="7" t="s">
         <v>21</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="AMI2" s="0"/>
+      <c r="N2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="9"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9"/>
-      <c r="I3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="10" t="s">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11"/>
+      <c r="J3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="9"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9"/>
-      <c r="M4" s="9"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9"/>
-      <c r="M5" s="9"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9"/>
-      <c r="M6" s="9"/>
-    </row>
-    <row r="7" s="8" customFormat="true" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
+      <c r="K3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="N3" s="11"/>
+      <c r="O3" s="13"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="13"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="13"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="13"/>
+    </row>
+    <row r="7" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6" t="s">
+      <c r="H7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6" t="s">
+      <c r="I7" s="7"/>
+      <c r="J7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="7" t="s">
+      <c r="K7" s="7"/>
+      <c r="L7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AMI7" s="0"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="9"/>
       <c r="AMJ7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9"/>
-      <c r="K8" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" s="9"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9"/>
-      <c r="M9" s="9"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9"/>
-      <c r="M10" s="9"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9"/>
-      <c r="M11" s="9"/>
-    </row>
-    <row r="12" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11"/>
+      <c r="L8" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="N8" s="11"/>
+      <c r="O8" s="13"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="13"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="13"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="13"/>
+    </row>
+    <row r="12" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6" t="s">
+      <c r="C12" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="F12" s="7"/>
+      <c r="G12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="H12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6" t="s">
+      <c r="I12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="N12" s="11" t="s">
+      <c r="K12" s="7"/>
+      <c r="L12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AMI12" s="0"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>44</v>
+      </c>
       <c r="AMJ12" s="0"/>
     </row>
-    <row r="13" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9"/>
-      <c r="H13" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="M13" s="9"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9"/>
-      <c r="M14" s="9"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9"/>
-      <c r="M15" s="9"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9"/>
-      <c r="M16" s="9"/>
-    </row>
-    <row r="17" s="8" customFormat="true" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="6" t="s">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11"/>
+      <c r="I13" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="N13" s="11"/>
+      <c r="O13" s="13"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="13"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="13"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="13"/>
+    </row>
+    <row r="17" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6" t="s">
+      <c r="B17" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6" t="s">
+      <c r="E17" s="7"/>
+      <c r="F17" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6" t="s">
+      <c r="G17" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="7" t="s">
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AMI17" s="0"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M17" s="7"/>
+      <c r="N17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="O17" s="9"/>
       <c r="AMJ17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9"/>
-      <c r="B18" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="K18" s="10" t="s">
+      <c r="A18" s="11"/>
+      <c r="C18" s="16"/>
+      <c r="J18" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="M18" s="9"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9"/>
-      <c r="M19" s="9"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9"/>
-      <c r="M20" s="9"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9"/>
-      <c r="M21" s="9"/>
-    </row>
-    <row r="22" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
+      <c r="L18" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="N18" s="11"/>
+      <c r="O18" s="13"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="13"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="13"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="13"/>
+    </row>
+    <row r="22" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="s">
         <v>56</v>
       </c>
+      <c r="B22" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="C22" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="D22" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6" t="s">
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
+      <c r="H22" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-      <c r="AMI22" s="0"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="9"/>
       <c r="AMJ22" s="0"/>
     </row>
-    <row r="23" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15"/>
-      <c r="B23" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="M23" s="9"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15"/>
-      <c r="M24" s="9"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="15"/>
-      <c r="M25" s="9"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="18"/>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="19"/>
+      <c r="C23" s="12"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="13"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="19"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="13"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="19"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="13"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="20"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="23"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
